--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A55CD-9FF6-4007-8601-2B2A82842146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBAB74-A778-44D7-8291-1983B03D4219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <t>电源极性反转变化器</t>
   </si>
   <si>
-    <t>电源极性反转变化器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SF-03-01-00000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,34 @@
   </si>
   <si>
     <t>G:\Library\AD_Library\SCH\03_Functional_IC.SchLib</t>
+  </si>
+  <si>
+    <t>9.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25℃~+60℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源极性反转变化器-ICL7660M/TR-Vin=1.5V~9.5V/Rout=55Ω~250Ω/Iout=6mA~170mA/功率转化率=98%-HGSEMI(华冠)-SOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25mmx5.1mmx1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -613,13 +640,13 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -628,22 +655,40 @@
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>23</v>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBAB74-A778-44D7-8291-1983B03D4219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F84CE-C7D9-4815-A976-5AB1B1E391E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,8 +175,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.25mmx5.1mmx1.75mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>6.25mm*5.1mm*1.75mm</t>
   </si>
 </sst>
 </file>
@@ -553,7 +552,9 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F84CE-C7D9-4815-A976-5AB1B1E391E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1198BD-6327-4DE3-9981-F1F21F004BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,10 +129,6 @@
     <t>电源极性反转变化器</t>
   </si>
   <si>
-    <t>SF-03-01-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电源反相器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +172,10 @@
   </si>
   <si>
     <t>6.25mm*5.1mm*1.75mm</t>
+  </si>
+  <si>
+    <t>SF030100000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,10 +551,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -641,13 +641,13 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -656,40 +656,40 @@
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>23</v>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1198BD-6327-4DE3-9981-F1F21F004BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56284F-D012-47F5-B777-9ACC58531FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56284F-D012-47F5-B777-9ACC58531FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE162E3-F415-4E58-AD7E-AE2FEAFD0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -554,7 +557,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -699,6 +702,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE162E3-F415-4E58-AD7E-AE2FEAFD0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E0F41-23C9-4239-AA8E-FEFF4A6EB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3530" yWindow="5730" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Library\Datasheet\03_Functional_IC\ICL7660-HGSEMI-DS-20250331.pdf</t>
-  </si>
-  <si>
     <t>C356724</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +176,9 @@
   <si>
     <t>SF030100000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\ICL7660_HGSEMI_DS_20250331.pdf</t>
   </si>
 </sst>
 </file>
@@ -554,10 +554,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -644,61 +644,61 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E0F41-23C9-4239-AA8E-FEFF4A6EB8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7DEA4-C4EF-4C79-B64B-2DBD29E39BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="5730" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -571,8 +571,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7DEA4-C4EF-4C79-B64B-2DBD29E39BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98BA84-01D0-423F-B76E-8D53142CCF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +560,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -565,7 +571,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -592,7 +598,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -657,7 +663,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="4" t="s">

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98BA84-01D0-423F-B76E-8D53142CCF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F03EE3-1E00-401B-804D-D35FA1AEF235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,64 @@
   </si>
   <si>
     <t>G:\Library\Datasheet\03_Functional_IC\ICL7660_HGSEMI_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>SF030200000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功率放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM4871YS8/TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGM4871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\104-SOIC.PcbLib</t>
+  </si>
+  <si>
+    <t>C2846728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\SGM4871_SGMICRO_DS_20250402.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGMICRO(圣邦微)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功率IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2mm*5.0mm*1.75mm</t>
+  </si>
+  <si>
+    <t>-40℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功率IC-SGM4871YS8/TR-Vin=2.5V~5.5V/Pout=1.2W~2.4W/PSRR=70dB/THD+N=0.2%-SGMICRO(圣邦微)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,12 +616,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -706,6 +764,59 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F03EE3-1E00-401B-804D-D35FA1AEF235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DAF41-FA12-4FE7-919B-2BF640AF3782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,62 @@
   </si>
   <si>
     <t>2.4W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压基准IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL431_1</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\101-SOT.PcbLib</t>
+  </si>
+  <si>
+    <t>LRC(乐山无线电)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调基准稳压芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3mm*2.5mm*1.1mm</t>
+  </si>
+  <si>
+    <t>SF030300000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C83052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTL431ATLT1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调基准稳压IC-LTL431ATLT1G-Vref=2.5V/Vout=2.5V~36V/Iout=0.1A-LRC(乐山无线电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\LTL431ATLT1G_LRC_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>36V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+125℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,12 +672,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -817,6 +873,59 @@
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DAF41-FA12-4FE7-919B-2BF640AF3782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A335B54D-5063-4F06-BA93-2CF36F060B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,53 @@
   </si>
   <si>
     <t>-40℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030400000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C84681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH340C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mm*6.2mm*1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCH(南京沁恒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB转换芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB转换IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB转串口芯片-CH340C-Vin=4.0V~5.3V-USB2.0-2Mbps-WCH(南京沁恒)-SOP-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\CH340C_WCH_DS_20250403.pdf</t>
+  </si>
+  <si>
+    <t>5.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20℃~+70℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,12 +719,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -926,6 +973,56 @@
         <v>59</v>
       </c>
     </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A335B54D-5063-4F06-BA93-2CF36F060B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404FACA-E115-4FF4-BFC1-2E316B081596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <t>电源极性反转变化器</t>
   </si>
   <si>
-    <t>电源反相器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音频功率IC-SGM4871YS8/TR-Vin=2.5V~5.5V/Pout=1.2W~2.4W/PSRR=70dB/THD+N=0.2%-SGMICRO(圣邦微)-SOIC-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.5V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可调基准稳压IC-LTL431ATLT1G-Vref=2.5V/Vout=2.5V~36V/Iout=0.1A-LRC(乐山无线电)-SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\Datasheet\03_Functional_IC\LTL431ATLT1G_LRC_DS_20250403.pdf</t>
   </si>
   <si>
@@ -339,6 +327,173 @@
   </si>
   <si>
     <t>-20℃~+70℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030500000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池管理IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLM6803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C711587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN16-4x4-EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\103-SOP.PcbLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\106-QFN.PcbLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡松朗微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\SLM6803_WXSLW_DS_20250404.pdf</t>
+  </si>
+  <si>
+    <t>22V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030600000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C558426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPMP1470GJ-Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\TPMP1470GJ-Z_TECHPUBLIC_DS_20250404.pdf</t>
+  </si>
+  <si>
+    <t>DC-DC电源IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源反相IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECH PUBLIC(台舟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC电源芯片-BUCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0mm*4.0mm*0.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.05mm*3.00mm*1.45mm</t>
+  </si>
+  <si>
+    <t>600KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池充电管理芯片-SLM6803-3节锂电池-升压充电-Vin=0V~22V/f=620KHz/效率=92%-无锡松朗微-QFN16-4x4-EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调基准稳压芯片-LTL431ATLT1G-Vref=2.5V/Vout=2.5V~36V/Iout=0.1A-LRC(乐山无线电)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC电源芯片-TPMP1470GJ-Z-BUCK(降压型)-Vin=3.5V~18V/Iout=2.5A/Vref=0.8V/f=600KHz/效率=95%-TECH PUBLIC(台舟)-SOT-23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功率放大芯片-SGM4871YS8/TR-Vin=2.5V~5.5V/Pout=1.2W~2.4W/PSRR=70dB/THD+N=0.2%-SGMICRO(圣邦微)-SOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池充电管理芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030700000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO-线性稳压器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mm*6.5mm*1.6mm</t>
+  </si>
+  <si>
+    <t>AMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性稳压器-LDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\AMS1117_AMS_DS_20250404.pdf</t>
+  </si>
+  <si>
+    <t>LDO-线性稳压器-AMS1117-3.3-压差≤1.3V/Vout=3.3V/Iout=1.0A-AMS-SOT-223-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,12 +877,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -810,13 +968,13 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -825,40 +983,40 @@
         <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>22</v>
@@ -869,158 +1027,323 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="N4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="P4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="J5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>75</v>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404FACA-E115-4FF4-BFC1-2E316B081596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB81D6-38DC-46D4-8D51-B7AF50F73460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,99 @@
   </si>
   <si>
     <t>15V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030800000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储IC-EEPROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL24C64D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5155396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slkor(萨科微)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\SL24C_Slkor_DS_20250406.pdf</t>
+  </si>
+  <si>
+    <t>SL24C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储芯片-SL24C64D-EEPROOM-64Kbit/f=400KHz/32Page/32Byte- Slkor(萨科微)-SOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030900000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F405RGT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32系列MCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12mm*12mm*1.6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64-10x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\107-LQFP.PcbLib</t>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\01_Basic\STM32F405-F407_ST_DS_20250406.pdf</t>
+  </si>
+  <si>
+    <t>STM32系列MCU-STM32F405RGT6-ARM-32bit-Cortex-M4-Main=168MHz-单核-ST(意法半导体)-LQFP64-10x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>435mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168MHZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,12 +970,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1346,6 +1439,115 @@
         <v>117</v>
       </c>
     </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAB81D6-38DC-46D4-8D51-B7AF50F73460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337992C8-C7F6-409C-AF3A-5E6A7E0BE36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,6 +587,10 @@
   </si>
   <si>
     <t>168MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPMP1470</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,10 +976,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>28</v>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337992C8-C7F6-409C-AF3A-5E6A7E0BE36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D584A-8FF4-4EA5-AA93-25C6FC9ECA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,53 @@
   </si>
   <si>
     <t>TPMP1470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030100000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS60403DBVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS60403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\TPS60403_TI_DS_20250417.pdf</t>
+  </si>
+  <si>
+    <t>电荷泵电压逆变器-TPS60403DBVR-Vin=1.6V~5.5V/Iout=60mA-TI(德州仪器)-SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电荷泵电压逆变器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.02mm*2.95mm*1.25mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250KHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,12 +1021,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1124,431 +1171,487 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>51</v>
+      <c r="N3" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>49</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>136</v>
       </c>
     </row>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D584A-8FF4-4EA5-AA93-25C6FC9ECA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759378-738C-4A9A-9233-F18BAEEC843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,124 +521,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SL24C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储芯片-SL24C64D-EEPROOM-64Kbit/f=400KHz/32Page/32Byte- Slkor(萨科微)-SOP-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030900000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F405RGT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32系列MCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12mm*12mm*1.6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64-10x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\107-LQFP.PcbLib</t>
+  </si>
+  <si>
+    <t>STM32系列MCU-STM32F405RGT6-ARM-32bit-Cortex-M4-Main=168MHz-单核-ST(意法半导体)-LQFP64-10x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>435mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPMP1470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030100000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS60403DBVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS60403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\TPS60403_TI_DS_20250417.pdf</t>
+  </si>
+  <si>
+    <t>电荷泵电压逆变器-TPS60403DBVR-Vin=1.6V~5.5V/Iout=60mA-TI(德州仪器)-SOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电荷泵电压逆变器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.02mm*2.95mm*1.25mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF030900000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F405ZGT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32系列MCU-STM32F405ZGT6-ARM-32bit-Cortex-M4-Main=168MHz-单核-ST(意法半导体)-LQFP144-20x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP144-20x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>G:\Library\Datasheet\03_Functional_IC\SL24C_Slkor_DS_20250406.pdf</t>
-  </si>
-  <si>
-    <t>SL24C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储芯片-SL24C64D-EEPROOM-64Kbit/f=400KHz/32Page/32Byte- Slkor(萨科微)-SOP-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400KHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF030900000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C15742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F405RGT6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST(意法半导体)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32系列MCU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12mm*12mm*1.6mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP64-10x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\AD_Library\PCB\107-LQFP.PcbLib</t>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\01_Basic\STM32F405-F407_ST_DS_20250406.pdf</t>
-  </si>
-  <si>
-    <t>STM32系列MCU-STM32F405RGT6-ARM-32bit-Cortex-M4-Main=168MHz-单核-ST(意法半导体)-LQFP64-10x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>435mW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168MHZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPMP1470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF030100000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS60403DBVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS60403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\03_Functional_IC\TPS60403_TI_DS_20250417.pdf</t>
-  </si>
-  <si>
-    <t>电荷泵电压逆变器-TPS60403DBVR-Vin=1.6V~5.5V/Iout=60mA-TI(德州仪器)-SOT-23-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI(德州仪器)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电荷泵电压逆变器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.02mm*2.95mm*1.25mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250KHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\STM32F405-F407_ST_DS_20250406.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20mm*20mm*1.6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F407ZGT6</t>
   </si>
 </sst>
 </file>
@@ -1021,12 +1050,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1171,58 +1200,58 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1457,7 +1486,7 @@
         <v>106</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>28</v>
@@ -1563,10 +1592,10 @@
         <v>124</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>28</v>
@@ -1578,7 +1607,7 @@
         <v>26</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>50</v>
@@ -1587,7 +1616,7 @@
         <v>49</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>35</v>
@@ -1601,58 +1630,114 @@
     </row>
     <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="K11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>136</v>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759378-738C-4A9A-9233-F18BAEEC843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2ACE62-25D0-4B7B-A4DD-A5E9545D77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,17 +170,9 @@
     <t>6.25mm*5.1mm*1.75mm</t>
   </si>
   <si>
-    <t>SF030100000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\Datasheet\03_Functional_IC\ICL7660_HGSEMI_DS_20250331.pdf</t>
   </si>
   <si>
-    <t>SF030200000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音频功率放大器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +248,6 @@
     <t>3mm*2.5mm*1.1mm</t>
   </si>
   <si>
-    <t>SF030300000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C83052</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030400000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C84681</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030500000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电池管理IC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030600000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C558426</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030700000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LDO-线性稳压器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030800000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储IC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,10 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030900000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C15742</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030100000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TPS60403DBVR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF030900000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STM32F405ZGT6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +624,39 @@
   </si>
   <si>
     <t>STM32F407ZGT6</t>
+  </si>
+  <si>
+    <t>SF03010001</t>
+  </si>
+  <si>
+    <t>SF03010002</t>
+  </si>
+  <si>
+    <t>SF03020001</t>
+  </si>
+  <si>
+    <t>SF03030001</t>
+  </si>
+  <si>
+    <t>SF03040001</t>
+  </si>
+  <si>
+    <t>SF03050001</t>
+  </si>
+  <si>
+    <t>SF03060001</t>
+  </si>
+  <si>
+    <t>SF03070001</t>
+  </si>
+  <si>
+    <t>SF03080001</t>
+  </si>
+  <si>
+    <t>SF03090001</t>
+  </si>
+  <si>
+    <t>SF03090002</t>
   </si>
 </sst>
 </file>
@@ -1052,29 +1041,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1139,15 +1128,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -1171,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>29</v>
@@ -1198,404 +1187,404 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="N7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>28</v>
@@ -1607,137 +1596,137 @@
         <v>26</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2ACE62-25D0-4B7B-A4DD-A5E9545D77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98CAE2-3ABE-47A6-A094-CE1A5358CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,58 @@
   </si>
   <si>
     <t>SF03090002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF03100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4051BM96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路复用器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关-8选1-CD4051BM96-Vin=3V~20V/f=20MHz/THD=0.3%-TI(德州仪器)-SOIC-16-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\CD4051B_TI_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25mm*5.1mm*1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25mm*10.2mm*1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1039,12 +1091,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1660,7 @@
         <v>121</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>118</v>
@@ -1727,6 +1779,59 @@
       </c>
       <c r="U12" s="5" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98CAE2-3ABE-47A6-A094-CE1A5358CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71473624-7927-4681-9A94-2F0CAAF349AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="179">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,6 +708,10 @@
   </si>
   <si>
     <t>6.25mm*10.2mm*1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4051B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1100,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1805,7 @@
         <v>171</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>28</v>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71473624-7927-4681-9A94-2F0CAAF349AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED0D64-8D89-442F-AEBF-E05EB7B2AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,58 +660,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF03100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C21379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD4051BM96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多路复用器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-55℃~+125℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟开关-8选1-CD4051BM96-Vin=3V~20V/f=20MHz/THD=0.3%-TI(德州仪器)-SOIC-16-150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\Library\Datasheet\03_Functional_IC\CD4051B_TI_DS_20250513.pdf</t>
-  </si>
-  <si>
-    <t>20V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOIC-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.25mm*5.1mm*1.75mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.25mm*10.2mm*1.75mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD4051B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,12 +1044,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1613,7 @@
         <v>121</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>118</v>
@@ -1783,66 +1732,13 @@
       </c>
       <c r="U12" s="5" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R12 R14:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">
       <formula1>"消费级,商业级,工业/医疗级,车规级,军工级,航空航天级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AD_Library/Excel/03_Functional_IC.xlsx
+++ b/AD_Library/Excel/03_Functional_IC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED0D64-8D89-442F-AEBF-E05EB7B2AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F04FC8-2B71-4A89-8DDD-9C2B3AEF8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,45 @@
   <si>
     <t>6.25mm*5.1mm*1.75mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF03100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C285995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC6201ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossChip(成都芯进)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔开关-CC6201ST-Vin=5V/工作点=±40Gs/释放点=±32Gs-CrossChip(成都芯进)-SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\03_Functional_IC\CC6201ST_CrossChip_DS_20250513.pdf</t>
   </si>
 </sst>
 </file>
@@ -1044,12 +1083,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1734,6 +1773,62 @@
         <v>126</v>
       </c>
     </row>
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
